--- a/public/excel_templates/master_templates/category_template.xlsx
+++ b/public/excel_templates/master_templates/category_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stall\OneDrive\Desktop\category\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF0C61-3F7C-48E9-B7B8-795ED9153F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE610D11-180A-4E03-AA1E-25666CEDB0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1932" windowWidth="14724" windowHeight="8880" xr2:uid="{92235569-3E70-485B-9534-60C57C4FCF83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{92235569-3E70-485B-9534-60C57C4FCF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>erp_code</t>
   </si>
   <si>
     <t>description</t>
@@ -428,7 +425,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,11 +439,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
